--- a/VS-SanityQA/testdata.xlsx
+++ b/VS-SanityQA/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="5280" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23025" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="PRO" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E15"/>
+  <oleSize ref="A13:E25"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="172">
   <si>
     <t>homepageURL</t>
   </si>
@@ -29,9 +29,6 @@
     <t>VALUE</t>
   </si>
   <si>
-    <t>https://productcentral-qa.products.pwc.com/content/pc/us/en/automation/homepage-demo.html</t>
-  </si>
-  <si>
     <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/pc/us/en/automation/products/cloud.html</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>resellerDemoPage</t>
   </si>
   <si>
-    <t>https://productcentral-qa.products.pwc.com/content/pc/us/en/automation/reseller-demo.html</t>
-  </si>
-  <si>
     <t>legalPage</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>ProductListingURL</t>
   </si>
   <si>
-    <t>https://productcentral-qa.products.pwc.com/content/pc/us/en/automation/security.html</t>
-  </si>
-  <si>
     <t>securityPublisher</t>
   </si>
   <si>
@@ -86,9 +77,6 @@
     <t>productPage</t>
   </si>
   <si>
-    <t>https://ums-productcentral-qa.pwc.com/</t>
-  </si>
-  <si>
     <t>ums</t>
   </si>
   <si>
@@ -98,9 +86,6 @@
     <t>HOMEPAGE</t>
   </si>
   <si>
-    <t>https://productcentral-qa.products.pwc.com/us/en/homepage.html</t>
-  </si>
-  <si>
     <t>Offering Overview</t>
   </si>
   <si>
@@ -461,12 +446,6 @@
     <t>Last updated 01/20/2023</t>
   </si>
   <si>
-    <t>https://productcentral-qa.products.pwc.com/us/en/automation/products/cloud/offering-overview.html</t>
-  </si>
-  <si>
-    <t>https://productcentral-qa.products.pwc.com/us/en/automation/legal/maintenance---support.html</t>
-  </si>
-  <si>
     <t>https://productcentral-qa.products.pwc.com/us/en/products.html</t>
   </si>
   <si>
@@ -497,9 +476,6 @@
     <t>https://productcentral-stg.products.pwc.com/us/en/products.html</t>
   </si>
   <si>
-    <t>https://productcentral-qa.products.pwc.com/us/en/legal.html</t>
-  </si>
-  <si>
     <t>legalPublisher</t>
   </si>
   <si>
@@ -539,7 +515,25 @@
     <t>https://productcentral.products.pwc.com/us/en/homepage.html</t>
   </si>
   <si>
-    <t>One-stop-shop, for all your Products' needs</t>
+    <t>Password@123</t>
+  </si>
+  <si>
+    <t>https://auth-valuestore-qa.pwc.com/sites.html/content/valuestore</t>
+  </si>
+  <si>
+    <t>https://auth-valuestore-qa.pwc.com/libs/granite/core/content/login.html</t>
+  </si>
+  <si>
+    <t>AEMLoginpage</t>
+  </si>
+  <si>
+    <t>https://auth-valuestore-qa.pwc.com/editor.html/content/valuestore/us/en/firmwide/erinc-content.html</t>
+  </si>
+  <si>
+    <t>https://auth-valuestore-qa.pwc.com/editor.html/content/valuestore/us/en/firmwide/erinc-content/ghosted-page.html</t>
+  </si>
+  <si>
+    <t>https://auth-valuestore-qa.pwc.com/mnt/overlay/wcm/core/content/sites/createpagewizard.html/content/valuestore/us/en/firmwide/erinc-content</t>
   </si>
 </sst>
 </file>
@@ -911,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,369 +925,177 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+      <c r="B3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>148</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>149</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" t="s">
-        <v>109</v>
-      </c>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" t="s">
-        <v>114</v>
-      </c>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" t="s">
-        <v>116</v>
-      </c>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" t="s">
-        <v>120</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B31" t="s">
-        <v>173</v>
-      </c>
+      <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" t="s">
-        <v>126</v>
-      </c>
+      <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" t="s">
-        <v>146</v>
-      </c>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" t="s">
-        <v>129</v>
-      </c>
+      <c r="A34" s="4"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" t="s">
-        <v>130</v>
-      </c>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" t="s">
-        <v>133</v>
-      </c>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" t="s">
-        <v>134</v>
-      </c>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B38" t="s">
-        <v>137</v>
-      </c>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B39" t="s">
-        <v>138</v>
-      </c>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B40" t="s">
-        <v>140</v>
-      </c>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B41" t="s">
-        <v>142</v>
-      </c>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B42" t="s">
-        <v>144</v>
-      </c>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" t="s">
-        <v>107</v>
-      </c>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Welcome@81Ch@ng3"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B14" r:id="rId4"/>
-    <hyperlink ref="A2" r:id="rId5"/>
-    <hyperlink ref="B25" r:id="rId6"/>
-    <hyperlink ref="B29" r:id="rId7"/>
-    <hyperlink ref="B45" r:id="rId8"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1317,269 +1119,269 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25"/>
@@ -1613,10 +1415,10 @@
     </row>
     <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1624,343 +1426,343 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1984,7 +1786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -2004,10 +1806,10 @@
     </row>
     <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2015,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2024,10 +1826,10 @@
     </row>
     <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2035,10 +1837,10 @@
     </row>
     <row r="7" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2046,18 +1848,18 @@
     </row>
     <row r="9" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2065,42 +1867,42 @@
     </row>
     <row r="12" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2112,10 +1914,10 @@
     </row>
     <row r="19" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2126,10 +1928,10 @@
     </row>
     <row r="22" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2141,26 +1943,26 @@
     </row>
     <row r="25" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2172,98 +1974,98 @@
     </row>
     <row r="30" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2271,10 +2073,10 @@
     </row>
     <row r="43" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2283,10 +2085,10 @@
     </row>
     <row r="45" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/VS-SanityQA/testdata.xlsx
+++ b/VS-SanityQA/testdata.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="174">
   <si>
     <t>homepageURL</t>
   </si>
@@ -534,6 +534,12 @@
   </si>
   <si>
     <t>https://auth-valuestore-qa.pwc.com/mnt/overlay/wcm/core/content/sites/createpagewizard.html/content/valuestore/us/en/firmwide/erinc-content</t>
+  </si>
+  <si>
+    <t>topicLandingAuth</t>
+  </si>
+  <si>
+    <t>https://auth-valuestore-qa.pwc.com/editor.html/content/valuestore/us/en/firmwide/erinc-content/topic-test.html</t>
   </si>
 </sst>
 </file>
@@ -906,7 +912,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +981,12 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
